--- a/generated_value_sets.xlsx
+++ b/generated_value_sets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
   <si>
     <t>Value Set OID</t>
   </si>
@@ -25,55 +25,331 @@
     <t>Display</t>
   </si>
   <si>
-    <t>2.16.840.1.113762.1.4.1248.89-20220719</t>
-  </si>
-  <si>
-    <t>J95.00</t>
-  </si>
-  <si>
-    <t>J95.01</t>
-  </si>
-  <si>
-    <t>J95.02</t>
-  </si>
-  <si>
-    <t>J95.03</t>
-  </si>
-  <si>
-    <t>J95.04</t>
-  </si>
-  <si>
-    <t>J95.09</t>
-  </si>
-  <si>
-    <t>Z43.0</t>
-  </si>
-  <si>
-    <t>Z93.0</t>
-  </si>
-  <si>
-    <t>Unspecified tracheostomy complication</t>
-  </si>
-  <si>
-    <t>Hemorrhage from tracheostomy stoma</t>
-  </si>
-  <si>
-    <t>Infection of tracheostomy stoma</t>
-  </si>
-  <si>
-    <t>Malfunction of tracheostomy stoma</t>
-  </si>
-  <si>
-    <t>Tracheo-esophageal fistula following tracheostomy</t>
-  </si>
-  <si>
-    <t>Other tracheostomy complication</t>
-  </si>
-  <si>
-    <t>Encounter for attention to tracheostomy</t>
-  </si>
-  <si>
-    <t>Tracheostomy status</t>
+    <t>2.16.840.1.113883.3.464.1003.103.11.1001-20170504</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.01</t>
+  </si>
+  <si>
+    <t>250.02</t>
+  </si>
+  <si>
+    <t>250.03</t>
+  </si>
+  <si>
+    <t>250.10</t>
+  </si>
+  <si>
+    <t>250.11</t>
+  </si>
+  <si>
+    <t>250.12</t>
+  </si>
+  <si>
+    <t>250.13</t>
+  </si>
+  <si>
+    <t>250.20</t>
+  </si>
+  <si>
+    <t>250.21</t>
+  </si>
+  <si>
+    <t>250.22</t>
+  </si>
+  <si>
+    <t>250.23</t>
+  </si>
+  <si>
+    <t>250.30</t>
+  </si>
+  <si>
+    <t>250.31</t>
+  </si>
+  <si>
+    <t>250.32</t>
+  </si>
+  <si>
+    <t>250.33</t>
+  </si>
+  <si>
+    <t>250.40</t>
+  </si>
+  <si>
+    <t>250.41</t>
+  </si>
+  <si>
+    <t>250.42</t>
+  </si>
+  <si>
+    <t>250.43</t>
+  </si>
+  <si>
+    <t>250.50</t>
+  </si>
+  <si>
+    <t>250.51</t>
+  </si>
+  <si>
+    <t>250.52</t>
+  </si>
+  <si>
+    <t>250.53</t>
+  </si>
+  <si>
+    <t>250.60</t>
+  </si>
+  <si>
+    <t>250.61</t>
+  </si>
+  <si>
+    <t>250.62</t>
+  </si>
+  <si>
+    <t>250.63</t>
+  </si>
+  <si>
+    <t>250.70</t>
+  </si>
+  <si>
+    <t>250.71</t>
+  </si>
+  <si>
+    <t>250.72</t>
+  </si>
+  <si>
+    <t>250.73</t>
+  </si>
+  <si>
+    <t>250.80</t>
+  </si>
+  <si>
+    <t>250.81</t>
+  </si>
+  <si>
+    <t>250.82</t>
+  </si>
+  <si>
+    <t>250.83</t>
+  </si>
+  <si>
+    <t>250.90</t>
+  </si>
+  <si>
+    <t>250.91</t>
+  </si>
+  <si>
+    <t>250.92</t>
+  </si>
+  <si>
+    <t>250.93</t>
+  </si>
+  <si>
+    <t>357.2</t>
+  </si>
+  <si>
+    <t>362.01</t>
+  </si>
+  <si>
+    <t>362.02</t>
+  </si>
+  <si>
+    <t>362.03</t>
+  </si>
+  <si>
+    <t>362.04</t>
+  </si>
+  <si>
+    <t>362.05</t>
+  </si>
+  <si>
+    <t>362.06</t>
+  </si>
+  <si>
+    <t>362.07</t>
+  </si>
+  <si>
+    <t>366.41</t>
+  </si>
+  <si>
+    <t>648.00</t>
+  </si>
+  <si>
+    <t>648.01</t>
+  </si>
+  <si>
+    <t>648.02</t>
+  </si>
+  <si>
+    <t>648.03</t>
+  </si>
+  <si>
+    <t>648.04</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus without mention of complication, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus without mention of complication, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus without mention of complication, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus without mention of complication, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ketoacidosis, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ketoacidosis, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ketoacidosis, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ketoacidosis, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with hyperosmolarity, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with hyperosmolarity, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with hyperosmolarity, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with hyperosmolarity, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other coma, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other coma, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other coma, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other coma, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with renal manifestations, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with renal manifestations, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with renal manifestations, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with renal manifestations, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ophthalmic manifestations, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ophthalmic manifestations, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ophthalmic manifestations, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with ophthalmic manifestations, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with neurological manifestations, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with neurological manifestations, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with neurological manifestations, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with neurological manifestations, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with peripheral circulatory disorders, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with peripheral circulatory disorders, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with peripheral circulatory disorders, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with peripheral circulatory disorders, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other specified manifestations, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other specified manifestations, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other specified manifestations, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with other specified manifestations, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with unspecified complication, type II or unspecified type, not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with unspecified complication, type I [juvenile type], not stated as uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with unspecified complication, type II or unspecified type, uncontrolled</t>
+  </si>
+  <si>
+    <t>Diabetes with unspecified complication, type I [juvenile type], uncontrolled</t>
+  </si>
+  <si>
+    <t>Polyneuropathy in diabetes</t>
+  </si>
+  <si>
+    <t>Background diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>Proliferative diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>Nonproliferative diabetic retinopathy NOS</t>
+  </si>
+  <si>
+    <t>Mild nonproliferative diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>Moderate nonproliferative diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>Severe nonproliferative diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>Diabetic macular edema</t>
+  </si>
+  <si>
+    <t>Diabetic cataract</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, unspecified as to episode of care or not applicable</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, delivered, with or without mention of antepartum condition</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, delivered, with mention of postpartum complication</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, antepartum condition or complication</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, postpartum condition or complication</t>
   </si>
 </sst>
 </file>
@@ -431,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -533,7 +809,513 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/generated_value_sets.xlsx
+++ b/generated_value_sets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>Value Set OID</t>
   </si>
@@ -25,331 +25,229 @@
     <t>Display</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.3.464.1003.103.11.1001-20170504</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.01</t>
-  </si>
-  <si>
-    <t>250.02</t>
-  </si>
-  <si>
-    <t>250.03</t>
-  </si>
-  <si>
-    <t>250.10</t>
-  </si>
-  <si>
-    <t>250.11</t>
-  </si>
-  <si>
-    <t>250.12</t>
-  </si>
-  <si>
-    <t>250.13</t>
-  </si>
-  <si>
-    <t>250.20</t>
-  </si>
-  <si>
-    <t>250.21</t>
-  </si>
-  <si>
-    <t>250.22</t>
-  </si>
-  <si>
-    <t>250.23</t>
-  </si>
-  <si>
-    <t>250.30</t>
-  </si>
-  <si>
-    <t>250.31</t>
-  </si>
-  <si>
-    <t>250.32</t>
-  </si>
-  <si>
-    <t>250.33</t>
-  </si>
-  <si>
-    <t>250.40</t>
-  </si>
-  <si>
-    <t>250.41</t>
-  </si>
-  <si>
-    <t>250.42</t>
-  </si>
-  <si>
-    <t>250.43</t>
-  </si>
-  <si>
-    <t>250.50</t>
-  </si>
-  <si>
-    <t>250.51</t>
-  </si>
-  <si>
-    <t>250.52</t>
-  </si>
-  <si>
-    <t>250.53</t>
-  </si>
-  <si>
-    <t>250.60</t>
-  </si>
-  <si>
-    <t>250.61</t>
-  </si>
-  <si>
-    <t>250.62</t>
-  </si>
-  <si>
-    <t>250.63</t>
-  </si>
-  <si>
-    <t>250.70</t>
-  </si>
-  <si>
-    <t>250.71</t>
-  </si>
-  <si>
-    <t>250.72</t>
-  </si>
-  <si>
-    <t>250.73</t>
-  </si>
-  <si>
-    <t>250.80</t>
-  </si>
-  <si>
-    <t>250.81</t>
-  </si>
-  <si>
-    <t>250.82</t>
-  </si>
-  <si>
-    <t>250.83</t>
-  </si>
-  <si>
-    <t>250.90</t>
-  </si>
-  <si>
-    <t>250.91</t>
-  </si>
-  <si>
-    <t>250.92</t>
-  </si>
-  <si>
-    <t>250.93</t>
-  </si>
-  <si>
-    <t>357.2</t>
-  </si>
-  <si>
-    <t>362.01</t>
-  </si>
-  <si>
-    <t>362.02</t>
-  </si>
-  <si>
-    <t>362.03</t>
-  </si>
-  <si>
-    <t>362.04</t>
-  </si>
-  <si>
-    <t>362.05</t>
-  </si>
-  <si>
-    <t>362.06</t>
-  </si>
-  <si>
-    <t>362.07</t>
-  </si>
-  <si>
-    <t>366.41</t>
-  </si>
-  <si>
-    <t>648.00</t>
-  </si>
-  <si>
-    <t>648.01</t>
-  </si>
-  <si>
-    <t>648.02</t>
-  </si>
-  <si>
-    <t>648.03</t>
-  </si>
-  <si>
-    <t>648.04</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus without mention of complication, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus without mention of complication, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus without mention of complication, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus without mention of complication, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ketoacidosis, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ketoacidosis, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ketoacidosis, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ketoacidosis, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with hyperosmolarity, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with hyperosmolarity, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with hyperosmolarity, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with hyperosmolarity, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other coma, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other coma, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other coma, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other coma, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with renal manifestations, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with renal manifestations, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with renal manifestations, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with renal manifestations, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ophthalmic manifestations, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ophthalmic manifestations, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ophthalmic manifestations, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with ophthalmic manifestations, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with neurological manifestations, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with neurological manifestations, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with neurological manifestations, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with neurological manifestations, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with peripheral circulatory disorders, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with peripheral circulatory disorders, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with peripheral circulatory disorders, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with peripheral circulatory disorders, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other specified manifestations, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other specified manifestations, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other specified manifestations, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with other specified manifestations, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with unspecified complication, type II or unspecified type, not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with unspecified complication, type I [juvenile type], not stated as uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with unspecified complication, type II or unspecified type, uncontrolled</t>
-  </si>
-  <si>
-    <t>Diabetes with unspecified complication, type I [juvenile type], uncontrolled</t>
-  </si>
-  <si>
-    <t>Polyneuropathy in diabetes</t>
-  </si>
-  <si>
-    <t>Background diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>Proliferative diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>Nonproliferative diabetic retinopathy NOS</t>
-  </si>
-  <si>
-    <t>Mild nonproliferative diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>Moderate nonproliferative diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>Severe nonproliferative diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>Diabetic macular edema</t>
-  </si>
-  <si>
-    <t>Diabetic cataract</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, unspecified as to episode of care or not applicable</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, delivered, with or without mention of antepartum condition</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, delivered, with mention of postpartum complication</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, antepartum condition or complication</t>
-  </si>
-  <si>
-    <t>Diabetes mellitus of mother, complicating pregnancy, childbirth, or the puerperium, postpartum condition or complication</t>
+    <t>2.16.840.1.113762.1.4.1260.158-20240307</t>
+  </si>
+  <si>
+    <t>F30.10</t>
+  </si>
+  <si>
+    <t>F30.11</t>
+  </si>
+  <si>
+    <t>F30.12</t>
+  </si>
+  <si>
+    <t>F30.13</t>
+  </si>
+  <si>
+    <t>F30.2</t>
+  </si>
+  <si>
+    <t>F30.3</t>
+  </si>
+  <si>
+    <t>F30.4</t>
+  </si>
+  <si>
+    <t>F30.8</t>
+  </si>
+  <si>
+    <t>F30.9</t>
+  </si>
+  <si>
+    <t>F31.0</t>
+  </si>
+  <si>
+    <t>F31.10</t>
+  </si>
+  <si>
+    <t>F31.11</t>
+  </si>
+  <si>
+    <t>F31.12</t>
+  </si>
+  <si>
+    <t>F31.13</t>
+  </si>
+  <si>
+    <t>F31.2</t>
+  </si>
+  <si>
+    <t>F31.30</t>
+  </si>
+  <si>
+    <t>F31.31</t>
+  </si>
+  <si>
+    <t>F31.32</t>
+  </si>
+  <si>
+    <t>F31.4</t>
+  </si>
+  <si>
+    <t>F31.5</t>
+  </si>
+  <si>
+    <t>F31.60</t>
+  </si>
+  <si>
+    <t>F31.61</t>
+  </si>
+  <si>
+    <t>F31.62</t>
+  </si>
+  <si>
+    <t>F31.63</t>
+  </si>
+  <si>
+    <t>F31.64</t>
+  </si>
+  <si>
+    <t>F31.70</t>
+  </si>
+  <si>
+    <t>F31.71</t>
+  </si>
+  <si>
+    <t>F31.72</t>
+  </si>
+  <si>
+    <t>F31.73</t>
+  </si>
+  <si>
+    <t>F31.74</t>
+  </si>
+  <si>
+    <t>F31.75</t>
+  </si>
+  <si>
+    <t>F31.76</t>
+  </si>
+  <si>
+    <t>F31.77</t>
+  </si>
+  <si>
+    <t>F31.78</t>
+  </si>
+  <si>
+    <t>F31.81</t>
+  </si>
+  <si>
+    <t>F31.89</t>
+  </si>
+  <si>
+    <t>F31.9</t>
+  </si>
+  <si>
+    <t>Manic episode without psychotic symptoms, unspecified</t>
+  </si>
+  <si>
+    <t>Manic episode without psychotic symptoms, mild</t>
+  </si>
+  <si>
+    <t>Manic episode without psychotic symptoms, moderate</t>
+  </si>
+  <si>
+    <t>Manic episode, severe, without psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Manic episode, severe with psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Manic episode in partial remission</t>
+  </si>
+  <si>
+    <t>Manic episode in full remission</t>
+  </si>
+  <si>
+    <t>Other manic episodes</t>
+  </si>
+  <si>
+    <t>Manic episode, unspecified</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode hypomanic</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode manic without psychotic features, unspecified</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode manic without psychotic features, mild</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode manic without psychotic features, moderate</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode manic without psychotic features, severe</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode manic severe with psychotic features</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode depressed, mild or moderate severity, unspecified</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode depressed, mild</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode depressed, moderate</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode depressed, severe, without psychotic features</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode depressed, severe, with psychotic features</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode mixed, unspecified</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode mixed, mild</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode mixed, moderate</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode mixed, severe, without psychotic features</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, current episode mixed, severe, with psychotic features</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, currently in remission, most recent episode unspecified</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in partial remission, most recent episode hypomanic</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in full remission, most recent episode hypomanic</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in partial remission, most recent episode manic</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in full remission, most recent episode manic</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in partial remission, most recent episode depressed</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in full remission, most recent episode depressed</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in partial remission, most recent episode mixed</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, in full remission, most recent episode mixed</t>
+  </si>
+  <si>
+    <t>Bipolar II disorder</t>
+  </si>
+  <si>
+    <t>Other bipolar disorder</t>
+  </si>
+  <si>
+    <t>Bipolar disorder, unspecified</t>
   </si>
 </sst>
 </file>
@@ -707,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -743,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -754,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -765,7 +663,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -776,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -787,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -798,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -809,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -820,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -831,7 +729,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -842,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -853,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -864,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -875,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -886,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -897,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -908,7 +806,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -919,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -930,7 +828,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -941,7 +839,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -952,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -963,7 +861,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -974,7 +872,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -985,7 +883,7 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -996,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1007,7 +905,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1018,7 +916,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1029,7 +927,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1040,7 +938,7 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1051,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1062,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1073,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1084,7 +982,7 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1095,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1106,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1117,7 +1015,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1128,194 +1026,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
